--- a/Data/Input/WorkItems.xlsx
+++ b/Data/Input/WorkItems.xlsx
@@ -1,27 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AHorbach\Documents\Uipath\Calculate Client Security Hash\Data\Input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFEF9A9-F27C-430D-A503-361FCC6D1338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="2772" yWindow="1716" windowWidth="17280" windowHeight="10056" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="0"/>
+  <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Actions Url</x:t>
   </x:si>
@@ -44,10 +37,10 @@
     <x:t>Client Information</x:t>
   </x:si>
   <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/90065418</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90065418</x:t>
+    <x:t>https://acme-test.uipath.com/work-items/90069228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90069228</x:t>
   </x:si>
   <x:si>
     <x:t>Calculate Client Security Hash</x:t>
@@ -59,165 +52,130 @@
     <x:t>Open</x:t>
   </x:si>
   <x:si>
-    <x:t>2022-10-01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XW47730-ShanitaPlumber-Italy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/90065421</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90065421</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021-07-16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XX97615-ElidiaGaulke-France</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/90065422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90065422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2019-12-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HR70321-ClementPaulette-Romania</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/90065423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90065423</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-04-11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KK58395-FritzBalke-Romania</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/90065420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90065420</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-02-14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BA92200-MayraMonzon-France</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/90065416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90065416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-08-23</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BL17488-MabelSuttle-Romania</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/90065415</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90065415</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2018-11-02</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XY37806-EloySandoz-France</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/90065414</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90065414</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020-09-09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>QS86336-DonnChabot-Germany</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/90065413</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90065413</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021-04-27</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AD88069-CraigTober-France</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/90065417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90065417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-11-30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FU72098-ErvinWald-Romania</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/90065419</x:t>
-  </x:si>
-  <x:si>
-    <x:t>90065419</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2017-06-15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UK18656-RaymondCrider-France</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/89751708</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89751708</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021-03-10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KI44163-EdisonByam-Germany</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://acme-test.uipath.com/work-items/89751699</x:t>
-  </x:si>
-  <x:si>
-    <x:t>89751699</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2022-12-29</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DL88634-JeramyRickenbacker-Germany</x:t>
+    <x:t>2021-08-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DB83622-Wilson Gau-Italy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/90069234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90069234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-09-19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HR70321-Clement Paulette-Romania</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/90069225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90069225</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-08-29</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CX76110-Mirian Derosier-Germany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/90069230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90069230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-12-14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TD88219-Caroll Eisenmann-Romania</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/90069231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90069231</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2017-10-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AD55686-Digna Buffaloe-Germany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/90069227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90069227</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2019-11-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GF87351-Thu Figueredo-France</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/90069226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90069226</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-03-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KJ93404-Garret Reising-Italy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/90069229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90069229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022-05-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XW47730-Shanita Plumber-Italy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/90069232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90069232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021-10-13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>QS86336-Donn Chabot-Germany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://acme-test.uipath.com/work-items/90069233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>90069233</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2018-02-07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NC73296-Keshia Pentecost-France</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1" x14ac:knownFonts="1">
+  <x:fonts count="1">
     <x:font>
+      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -233,32 +191,38 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
 </x:styleSheet>
 </file>
 
@@ -546,17 +510,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G14"/>
+  <x:dimension ref="A1:G11"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:7">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -579,7 +543,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="2" spans="1:7">
       <x:c r="A2" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -602,7 +566,7 @@
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="3" spans="1:7">
       <x:c r="A3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -625,7 +589,7 @@
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="4" spans="1:7">
       <x:c r="A4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -648,7 +612,7 @@
         <x:v>21</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="5" spans="1:7">
       <x:c r="A5" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -671,7 +635,7 @@
         <x:v>25</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="6" spans="1:7">
       <x:c r="A6" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
@@ -694,7 +658,7 @@
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="7" spans="1:7">
       <x:c r="A7" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
@@ -717,7 +681,7 @@
         <x:v>33</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="8" spans="1:7">
       <x:c r="A8" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
@@ -740,7 +704,7 @@
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="9" spans="1:7">
       <x:c r="A9" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
@@ -763,7 +727,7 @@
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="10" spans="1:7">
       <x:c r="A10" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
@@ -786,7 +750,7 @@
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <x:row r="11" spans="1:7">
       <x:c r="A11" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
@@ -807,75 +771,6 @@
       </x:c>
       <x:c r="G11" s="0" t="s">
         <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A12" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B12" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A13" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <x:c r="A14" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>61</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
